--- a/LMADefs-Demo_DD.xlsx
+++ b/LMADefs-Demo_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabGren\Work Folders\Documents\TransportElModellSthlm\SimpleModel\City_TRA_STHLM_ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94397F1D-75BC-4086-A66A-D7961E22E644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E9DF28-2C93-45B2-9EA1-D68E3BD41746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="217">
   <si>
     <t>Unit</t>
   </si>
@@ -828,9 +828,6 @@
     <t>fuelagg</t>
   </si>
   <si>
-    <t>TCS, TCL</t>
-  </si>
-  <si>
     <t>Final energy</t>
   </si>
   <si>
@@ -838,6 +835,36 @@
   </si>
   <si>
     <t>TJ</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>&lt;c&gt;</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>T*</t>
+  </si>
+  <si>
+    <t>Subsector</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>TC?</t>
+  </si>
+  <si>
+    <t>Buses</t>
+  </si>
+  <si>
+    <t>TB*</t>
   </si>
 </sst>
 </file>
@@ -1816,9 +1843,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1919,20 +1946,40 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
-        <v>204</v>
+      <c r="E3" t="s">
+        <v>210</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="M3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" t="s">
+        <v>204</v>
+      </c>
+      <c r="S3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" t="s">
         <v>207</v>
       </c>
-      <c r="P3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S3" t="s">
-        <v>206</v>
+      <c r="M4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P4" t="s">
+        <v>209</v>
+      </c>
+      <c r="S4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2834,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2935,11 +2982,11 @@
       <c r="A8" t="s">
         <v>200</v>
       </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
       <c r="C8" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3030,7 +3077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -3041,7 +3088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -3052,7 +3099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>201</v>
       </c>
@@ -3063,7 +3110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -3072,6 +3119,28 @@
       </c>
       <c r="D20" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/LMADefs-Demo_DD.xlsx
+++ b/LMADefs-Demo_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabGren\Work Folders\Documents\TransportElModellSthlm\SimpleModel\City_TRA_STHLM_ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E9DF28-2C93-45B2-9EA1-D68E3BD41746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50DBEA-A3C3-444E-BBDD-25E16E849A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43230" yWindow="750" windowWidth="28800" windowHeight="15045" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="221">
   <si>
     <t>Unit</t>
   </si>
@@ -865,6 +865,18 @@
   </si>
   <si>
     <t>TB*</t>
+  </si>
+  <si>
+    <t>Freight LDF</t>
+  </si>
+  <si>
+    <t>TFL*</t>
+  </si>
+  <si>
+    <t>Freight HDF</t>
+  </si>
+  <si>
+    <t>TFR*</t>
   </si>
 </sst>
 </file>
@@ -2881,10 +2893,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3141,6 +3153,28 @@
       </c>
       <c r="F22" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
